--- a/app_data/subscriptions.xlsx
+++ b/app_data/subscriptions.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">monthly_budget</t>
   </si>
   <si>
-    <t xml:space="preserve">ThinkVideo</t>
+    <t xml:space="preserve">Client1</t>
   </si>
 </sst>
 </file>
@@ -143,10 +143,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -158,7 +158,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -169,7 +169,7 @@
       <c r="B2" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
